--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ готово 28.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,23 +35,39 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -82,30 +95,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,10 +128,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -141,11 +155,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,29 +185,24 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,618 +573,203 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>43816</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="2">
+        <v>31135</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2">
+        <v>15456</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14">
-        <v>32804</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
-        <v>16211</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>43864</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>31730</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C6)</f>
+        <f>SUM(C4,-C2)</f>
         <v>595</v>
       </c>
       <c r="E4" s="5">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <f>D4*E4</f>
         <v>2671.55</v>
       </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>4333.67</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4333.67</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>16140</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" ref="D5:D7" si="0">SUM(C5,-C3)</f>
         <v>684</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <f>D5*E5</f>
         <v>1662.1200000000001</v>
       </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43816</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>43892</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>31135</v>
+        <v>32815</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>571</v>
+        <v>1085</v>
       </c>
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <f>D6*E6</f>
-        <v>2563.79</v>
+        <v>4871.6500000000005</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>5046.6100000000006</v>
+      </c>
+      <c r="H6" s="12">
+        <v>5046.6099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>15456</v>
+        <v>16212</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <f>D7*E7</f>
-        <v>967.1400000000001</v>
-      </c>
+        <v>174.96</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43781</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30564</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>617</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
-        <v>2770.33</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(G2:G7)</f>
+        <v>9380.2800000000007</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(H2:H7)</f>
+        <v>9380.2799999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15058</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>595.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43738</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>29947</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>2200.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>14813</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>328.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43691</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>29457</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D27" si="2">SUM(C12,-C14)</f>
-        <v>476</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>2137.2400000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14678</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>371.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43646</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>28981</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>442</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F27" si="3">D14*E14</f>
-        <v>2019.94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14525</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="3"/>
-        <v>332.21000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>43600</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>28539</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>442</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>2019.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14386</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>247</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>590.33000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>43567</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>28097</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>1185</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="3"/>
-        <v>5415.4500000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14139</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>648</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="3"/>
-        <v>1548.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>43508</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>26912</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>1325</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="3"/>
-        <v>6055.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>13491</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>678</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="3"/>
-        <v>1620.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>43460</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>25587</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>1030</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="3"/>
-        <v>4635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
-        <v>12813</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>566</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="3"/>
-        <v>1330.1000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>43399</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <v>24557</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2">
-        <v>12247</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="2"/>
-        <v>201</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="3"/>
-        <v>472.35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>43351</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>24157</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="2"/>
-        <v>349</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="3"/>
-        <v>1570.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
-        <v>12046</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="3"/>
-        <v>277.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>43309</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4">
-        <v>23808</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4">
-        <v>11928</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ готово 28.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\ЭЭ готово 02.04.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="9">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>2671.55</v>
       </c>
       <c r="G4" s="12">
@@ -687,14 +687,14 @@
         <v>16140</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="0">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
         <v>684</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="9">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>1662.1200000000001</v>
       </c>
       <c r="G5" s="12"/>
@@ -711,14 +711,14 @@
         <v>32815</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1085</v>
       </c>
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
       <c r="F6" s="9">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>4871.6500000000005</v>
       </c>
       <c r="G6" s="12">
@@ -738,38 +738,140 @@
         <v>16212</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="13">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>174.96</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
-        <v>10</v>
+      <c r="A8" s="7">
+        <v>43934</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>33285</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>470</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>2110.3000000000002</v>
       </c>
       <c r="G8" s="12">
-        <f>SUM(G2:G7)</f>
-        <v>9380.2800000000007</v>
+        <f>SUM(F8,F9)</f>
+        <v>2705.65</v>
       </c>
       <c r="H8" s="12">
-        <f>SUM(H2:H7)</f>
-        <v>9380.2799999999988</v>
+        <v>2705.65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="11" t="s">
-        <v>11</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16457</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>595.35</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>33805</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <v>520</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>2334.8000000000002</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>3173.15</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3173.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16802</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="4"/>
+        <v>838.35</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(G2:G9)</f>
+        <v>12085.93</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H2:H9)</f>
+        <v>12085.929999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\ЭЭ готово 02.04.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\новое ee 05.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,24 +854,75 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="11" t="s">
-        <v>10</v>
+      <c r="A12" s="7">
+        <v>43997</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>34741</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>936</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>4202.6400000000003</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G2:G9)</f>
-        <v>12085.93</v>
+        <f>SUM(F12,F13)</f>
+        <v>5998.4100000000008</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(H2:H9)</f>
-        <v>12085.929999999998</v>
+        <v>5998.41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
-        <v>11</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17541</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>739</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="6"/>
+        <v>1795.7700000000002</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>21257.49</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>21257.489999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\новое ee 05.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,24 +905,75 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
-        <v>10</v>
+      <c r="A14" s="7">
+        <v>44014</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>35104</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>363</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>1629.8700000000001</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>21257.49</v>
+        <f>SUM(F14,F15)</f>
+        <v>1753.8000000000002</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>21257.489999999998</v>
+        <v>1753.8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
-        <v>11</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17592</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="8"/>
+        <v>123.93</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>23011.29</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>23011.289999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.08.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -573,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,24 +956,75 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="7">
+        <v>44085</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35336</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>232</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>1092.72</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>1702.17</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1753.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17831</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
+        <v>239</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="10"/>
+        <v>609.44999999999993</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G18" s="12">
         <f>SUM(G2:G15)</f>
         <v>23011.29</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H18" s="12">
         <f>SUM(H2:H15)</f>
         <v>23011.289999999997</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.08.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,13 +95,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -170,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +218,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,11 +688,11 @@
         <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>2671.55</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <f>SUM(F4,F5)</f>
         <v>4333.67</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="14">
         <v>4333.67</v>
       </c>
     </row>
@@ -697,8 +715,8 @@
         <f t="shared" si="0"/>
         <v>1662.1200000000001</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -721,11 +739,11 @@
         <f t="shared" si="0"/>
         <v>4871.6500000000005</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
         <v>5046.6100000000006</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <v>5046.6099999999997</v>
       </c>
     </row>
@@ -748,8 +766,8 @@
         <f t="shared" si="0"/>
         <v>174.96</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -772,11 +790,11 @@
         <f t="shared" si="0"/>
         <v>2110.3000000000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
         <v>2705.65</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="14">
         <v>2705.65</v>
       </c>
     </row>
@@ -799,8 +817,8 @@
         <f t="shared" si="0"/>
         <v>595.35</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -823,11 +841,11 @@
         <f t="shared" ref="F10:F11" si="4">D10*E10</f>
         <v>2334.8000000000002</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="14">
         <f>SUM(F10,F11)</f>
         <v>3173.15</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="14">
         <v>3173.15</v>
       </c>
     </row>
@@ -850,8 +868,8 @@
         <f t="shared" si="4"/>
         <v>838.35</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -874,11 +892,11 @@
         <f t="shared" ref="F12:F13" si="6">D12*E12</f>
         <v>4202.6400000000003</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="14">
         <f>SUM(F12,F13)</f>
         <v>5998.4100000000008</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="14">
         <v>5998.41</v>
       </c>
     </row>
@@ -901,8 +919,8 @@
         <f t="shared" si="6"/>
         <v>1795.7700000000002</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -922,14 +940,14 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <f t="shared" ref="F14:F17" si="8">D14*E14</f>
         <v>1629.8700000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <f>SUM(F14,F15)</f>
         <v>1753.8000000000002</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="14">
         <v>1753.8</v>
       </c>
     </row>
@@ -962,26 +980,26 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="15">
         <v>35336</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
-        <v>232</v>
+        <f>SUM(C16,-C12)</f>
+        <v>595</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>1092.72</v>
-      </c>
-      <c r="G16" s="12">
+        <f t="shared" si="8"/>
+        <v>2802.45</v>
+      </c>
+      <c r="G16" s="16">
         <f>SUM(F16,F17)</f>
+        <v>3541.95</v>
+      </c>
+      <c r="H16" s="14">
         <v>1702.17</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1753.8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,42 +1007,144 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="15">
         <v>17831</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>239</v>
+        <f>SUM(C17,-C13)</f>
+        <v>290</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="10"/>
-        <v>609.44999999999993</v>
+        <f t="shared" si="8"/>
+        <v>739.5</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>23011.29</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>23011.289999999997</v>
+      <c r="A18" s="7">
+        <v>44123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15">
+        <v>36229</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C14)</f>
+        <v>1125</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
+        <v>5298.75</v>
+      </c>
+      <c r="G18" s="16">
+        <f>SUM(F18,F19)</f>
+        <v>6581.4</v>
+      </c>
+      <c r="H18" s="14">
+        <v>4879.2299999999996</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
-        <v>11</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
+        <v>18095</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C15)</f>
+        <v>503</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="9"/>
+        <v>1282.6499999999999</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44134</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>36455</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C18)</f>
+        <v>226</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>1064.46</v>
+      </c>
+      <c r="G20" s="14">
+        <f>SUM(F20,F21)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1390.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
+        <v>18223</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C19)</f>
+        <v>128</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="10"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(G2:G21)</f>
+        <v>34525.5</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H2:H21)</f>
+        <v>30983.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,13 +95,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -112,7 +105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,9 +191,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,11 +208,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -591,10 +581,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,524 +617,167 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>43816</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>31135</v>
+      <c r="C2" s="15">
+        <v>36229</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>15456</v>
+      <c r="C3" s="15">
+        <v>18095</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>43864</v>
+      <c r="A4" s="6">
+        <v>44134</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>31730</v>
+      <c r="C4" s="15">
+        <v>36455</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>595</v>
+        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
+        <v>226</v>
       </c>
       <c r="E4" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>2671.55</v>
-      </c>
-      <c r="G4" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1064.46</v>
+      </c>
+      <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>4333.67</v>
-      </c>
-      <c r="H4" s="14">
-        <v>4333.67</v>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1390.86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>16140</v>
+      <c r="C5" s="15">
+        <v>18223</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>684</v>
+        <f t="shared" si="0"/>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>1662.1200000000001</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>43892</v>
+      <c r="A6" s="6">
+        <v>44151</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>32815</v>
+      <c r="C6" s="15">
+        <v>36794</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>1085</v>
+        <f t="shared" si="0"/>
+        <v>339</v>
       </c>
       <c r="E6" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>4871.6500000000005</v>
-      </c>
-      <c r="G6" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>1596.69</v>
+      </c>
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>5046.6100000000006</v>
-      </c>
-      <c r="H6" s="14">
-        <v>5046.6099999999997</v>
+        <v>2104.14</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2104.14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>16212</v>
+      <c r="C7" s="15">
+        <v>18422</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>174.96</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>507.45</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>43934</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>33285</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>470</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>2110.3000000000002</v>
-      </c>
-      <c r="G8" s="14">
-        <f>SUM(F8,F9)</f>
-        <v>2705.65</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2705.65</v>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(G2:G7)</f>
+        <v>3495</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(H2:H7)</f>
+        <v>3495</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>16457</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>245</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>595.35</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>43945</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>33805</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
-        <v>520</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>2334.8000000000002</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(F10,F11)</f>
-        <v>3173.15</v>
-      </c>
-      <c r="H10" s="14">
-        <v>3173.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>16802</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="4"/>
-        <v>838.35</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>43997</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>34741</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
-        <v>936</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>4202.6400000000003</v>
-      </c>
-      <c r="G12" s="14">
-        <f>SUM(F12,F13)</f>
-        <v>5998.4100000000008</v>
-      </c>
-      <c r="H12" s="14">
-        <v>5998.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17541</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>739</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="6"/>
-        <v>1795.7700000000002</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>44014</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>35104</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
-        <v>363</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F17" si="8">D14*E14</f>
-        <v>1629.8700000000001</v>
-      </c>
-      <c r="G14" s="14">
-        <f>SUM(F14,F15)</f>
-        <v>1753.8000000000002</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1753.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17592</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="13">
-        <f t="shared" si="8"/>
-        <v>123.93</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>44085</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>35336</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(C16,-C12)</f>
-        <v>595</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="8"/>
-        <v>2802.45</v>
-      </c>
-      <c r="G16" s="16">
-        <f>SUM(F16,F17)</f>
-        <v>3541.95</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1702.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
-        <v>17831</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(C17,-C13)</f>
-        <v>290</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" si="8"/>
-        <v>739.5</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>44123</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="15">
-        <v>36229</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(C18,-C14)</f>
-        <v>1125</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
-        <v>5298.75</v>
-      </c>
-      <c r="G18" s="16">
-        <f>SUM(F18,F19)</f>
-        <v>6581.4</v>
-      </c>
-      <c r="H18" s="14">
-        <v>4879.2299999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15">
-        <v>18095</v>
-      </c>
-      <c r="D19" s="2">
-        <f>SUM(C19,-C15)</f>
-        <v>503</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="9"/>
-        <v>1282.6499999999999</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44134</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="15">
-        <v>36455</v>
-      </c>
-      <c r="D20" s="2">
-        <f>SUM(C20,-C18)</f>
-        <v>226</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
-        <v>1064.46</v>
-      </c>
-      <c r="G20" s="14">
-        <f>SUM(F20,F21)</f>
-        <v>1390.8600000000001</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1390.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
-        <v>18223</v>
-      </c>
-      <c r="D21" s="2">
-        <f>SUM(C21,-C19)</f>
-        <v>128</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="10"/>
-        <v>326.39999999999998</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(G2:G21)</f>
-        <v>34525.5</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H2:H21)</f>
-        <v>30983.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -176,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,8 +197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,28 +626,28 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>36229</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>18095</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -664,7 +656,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>36455</v>
       </c>
       <c r="D4" s="2">
@@ -678,11 +670,11 @@
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>1064.46</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>1390.8600000000001</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>1390.86</v>
       </c>
     </row>
@@ -691,7 +683,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>18223</v>
       </c>
       <c r="D5" s="2">
@@ -701,12 +693,12 @@
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>326.39999999999998</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -715,7 +707,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>36794</v>
       </c>
       <c r="D6" s="2">
@@ -729,11 +721,11 @@
         <f t="shared" ref="F6:F7" si="2">D6*E6</f>
         <v>1596.69</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
         <v>2104.14</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>2104.14</v>
       </c>
     </row>
@@ -742,7 +734,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>18422</v>
       </c>
       <c r="D7" s="2">
@@ -752,32 +744,114 @@
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>507.45</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="13">
-        <f>SUM(G2:G7)</f>
-        <v>3495</v>
-      </c>
-      <c r="H8" s="13">
-        <f>SUM(H2:H7)</f>
-        <v>3495</v>
+      <c r="A8" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>37107</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C6)</f>
+        <v>313</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>1474.23</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>1971.48</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1971.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="10" t="s">
-        <v>11</v>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13">
+        <v>18617</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="4"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44179</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13">
+        <v>37373</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="5">SUM(C10,-C8)</f>
+        <v>266</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1252.8599999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>1612.4099999999999</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1612.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>18758</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="6"/>
+        <v>359.54999999999995</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -90,7 +90,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +209,18 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,20 +638,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>44123</v>
+      <c r="A2" s="16">
+        <v>44200</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
+        <v>37953</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>580</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>2731.8</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUM(F2,F3)</f>
+        <v>3547.8</v>
+      </c>
+      <c r="H2" s="11">
+        <v>3547.8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -641,41 +672,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>18095</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
+        <v>19078</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="1">SUM(C3,-C5)</f>
+        <v>320</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>44134</v>
+      <c r="A4" s="17">
+        <v>44179</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>36455</v>
+        <v>37373</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
-        <v>226</v>
+        <f>SUM(C4,-C6)</f>
+        <v>266</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1064.46</v>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F11" si="2">D4*E4</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1390.8600000000001</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H4" s="11">
-        <v>1390.86</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,49 +723,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>18223</v>
+        <v>18758</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="E5" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>326.39999999999998</v>
+      <c r="F5" s="15">
+        <f t="shared" si="2"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>339</v>
+        <f t="shared" si="1"/>
+        <v>313</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>1596.69</v>
+        <f t="shared" si="2"/>
+        <v>1474.23</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H6" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,49 +774,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>199</v>
+        <f t="shared" si="1"/>
+        <v>195</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="2"/>
-        <v>507.45</v>
+        <v>497.24999999999994</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44166</v>
+        <v>44151</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>37107</v>
+        <v>36794</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C6)</f>
-        <v>313</v>
+        <f t="shared" si="1"/>
+        <v>339</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>1474.23</v>
+        <f t="shared" si="2"/>
+        <v>1596.69</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1971.48</v>
+        <v>2104.14</v>
       </c>
       <c r="H8" s="11">
-        <v>1971.48</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,49 +825,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>18617</v>
+        <v>18422</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f t="shared" si="1"/>
+        <v>199</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="4"/>
-        <v>497.24999999999994</v>
+        <f t="shared" si="2"/>
+        <v>507.45</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44179</v>
+        <v>44134</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>37373</v>
+        <v>36455</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="5">SUM(C10,-C8)</f>
-        <v>266</v>
+        <f t="shared" si="1"/>
+        <v>226</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" si="2"/>
+        <v>1064.46</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1612.4099999999999</v>
+        <v>1390.8600000000001</v>
       </c>
       <c r="H10" s="11">
-        <v>1612.41</v>
+        <v>1390.86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,26 +876,56 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>18758</v>
+        <v>18223</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
-        <v>141</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="6"/>
-        <v>359.54999999999995</v>
+        <f t="shared" si="2"/>
+        <v>326.39999999999998</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>18095</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -591,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,84 +637,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44200</v>
+        <v>44247</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>37953</v>
+        <v>38483</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E2" s="5">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2731.8</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
       <c r="H2" s="11">
-        <v>3547.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>19078</v>
+        <v>19472</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D11" si="1">SUM(C3,-C5)</f>
-        <v>320</v>
+        <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
+        <v>394</v>
       </c>
       <c r="E3" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>816</v>
+        <v>1004.6999999999999</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>37373</v>
+        <v>37953</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>266</v>
+        <v>580</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F11" si="2">D4*E4</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>2731.8</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1612.4099999999999</v>
+        <v>3547.8</v>
       </c>
       <c r="H4" s="11">
-        <v>1612.41</v>
+        <v>3547.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>18758</v>
+        <v>19078</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>141</v>
+        <f t="shared" ref="D5:D13" si="3">SUM(C5,-C7)</f>
+        <v>320</v>
       </c>
       <c r="E5" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>359.54999999999995</v>
+        <v>816</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44166</v>
+      <c r="A6" s="17">
+        <v>44179</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>37107</v>
+        <v>37373</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>313</v>
+        <f>SUM(C6,-C8)</f>
+        <v>266</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="2"/>
-        <v>1474.23</v>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F13" si="4">D6*E6</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>1971.48</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H6" s="11">
-        <v>1971.48</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>18617</v>
+        <v>18758</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="2"/>
-        <v>497.24999999999994</v>
+      <c r="F7" s="15">
+        <f t="shared" si="4"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>339</v>
+        <f t="shared" si="3"/>
+        <v>313</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>1596.69</v>
+        <f t="shared" si="4"/>
+        <v>1474.23</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H8" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>199</v>
+        <f t="shared" si="3"/>
+        <v>195</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="2"/>
-        <v>507.45</v>
+        <f t="shared" si="4"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>36455</v>
+        <v>36794</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>226</v>
+        <f t="shared" si="3"/>
+        <v>339</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>1064.46</v>
+        <f t="shared" si="4"/>
+        <v>1596.69</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1390.8600000000001</v>
+        <v>2104.14</v>
       </c>
       <c r="H10" s="11">
-        <v>1390.86</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,37 +876,50 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>18223</v>
+        <v>18422</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="2"/>
-        <v>326.39999999999998</v>
+        <f t="shared" si="4"/>
+        <v>507.45</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44123</v>
+        <v>44134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
+        <v>36455</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>1064.46</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1390.86</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -914,13 +927,51 @@
         <v>5</v>
       </c>
       <c r="C13" s="13">
+        <v>18223</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="4"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13">
         <v>18095</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -591,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,31 +639,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44247</v>
+        <v>44343</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>38483</v>
+        <v>39525</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>530</v>
+        <v>1042</v>
       </c>
       <c r="E2" s="5">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2496.3000000000002</v>
+        <v>4907.82</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
       <c r="H2" s="11">
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>19472</v>
+        <v>19857</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E3" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>1004.6999999999999</v>
+        <v>981.74999999999989</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44200</v>
+        <v>44247</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>37953</v>
+        <v>38483</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>2731.8</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
       <c r="H4" s="11">
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>19078</v>
+        <v>19472</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D13" si="3">SUM(C5,-C7)</f>
-        <v>320</v>
+        <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
+        <v>394</v>
       </c>
       <c r="E5" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>1004.6999999999999</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>37373</v>
+        <v>37953</v>
       </c>
       <c r="D6" s="2">
         <f>SUM(C6,-C8)</f>
-        <v>266</v>
+        <v>580</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F13" si="4">D6*E6</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>2731.8</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>1612.4099999999999</v>
+        <v>3547.8</v>
       </c>
       <c r="H6" s="11">
-        <v>1612.41</v>
+        <v>3547.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>18758</v>
+        <v>19078</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
-        <v>141</v>
+        <f t="shared" ref="D7:D15" si="5">SUM(C7,-C9)</f>
+        <v>320</v>
       </c>
       <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="4"/>
-        <v>359.54999999999995</v>
+        <v>816</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44166</v>
+      <c r="A8" s="17">
+        <v>44179</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>37107</v>
+        <v>37373</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>313</v>
+        <f>SUM(C8,-C10)</f>
+        <v>266</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="4"/>
-        <v>1474.23</v>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F15" si="6">D8*E8</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1971.48</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H8" s="11">
-        <v>1971.48</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>18617</v>
+        <v>18758</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="E9" s="2">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="E9" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="4"/>
-        <v>497.24999999999994</v>
+      <c r="F9" s="15">
+        <f t="shared" si="6"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>339</v>
+        <f t="shared" si="5"/>
+        <v>313</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="4"/>
-        <v>1596.69</v>
+        <f t="shared" si="6"/>
+        <v>1474.23</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H10" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>199</v>
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="4"/>
-        <v>507.45</v>
+        <f t="shared" si="6"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>36455</v>
+        <v>36794</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>226</v>
+        <f t="shared" si="5"/>
+        <v>339</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>1064.46</v>
+        <f t="shared" si="6"/>
+        <v>1596.69</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>1390.8600000000001</v>
+        <v>2104.14</v>
       </c>
       <c r="H12" s="11">
-        <v>1390.86</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,37 +927,50 @@
         <v>5</v>
       </c>
       <c r="C13" s="13">
-        <v>18223</v>
+        <v>18422</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>128</v>
+        <f t="shared" si="5"/>
+        <v>199</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>326.39999999999998</v>
+        <f t="shared" si="6"/>
+        <v>507.45</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44123</v>
+        <v>44134</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
+        <v>36455</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>1064.46</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1390.86</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -965,13 +978,51 @@
         <v>5</v>
       </c>
       <c r="C15" s="13">
+        <v>18223</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="6"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
         <v>18095</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -591,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,31 +639,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44343</v>
+        <v>44377</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>39525</v>
+        <v>40374</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="E2" s="5">
         <v>4.71</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>4907.82</v>
+        <v>3998.79</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>5889.57</v>
+        <v>6028.59</v>
       </c>
       <c r="H2" s="11">
-        <v>5889.57</v>
+        <v>5799.09</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>19857</v>
+        <v>20653</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
-        <v>385</v>
+        <v>796</v>
       </c>
       <c r="E3" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>981.74999999999989</v>
+        <v>2029.8</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44247</v>
+        <v>44343</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>38483</v>
+        <v>39525</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>530</v>
+        <v>1042</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>2496.3000000000002</v>
+        <v>4907.82</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
       <c r="H4" s="11">
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>19472</v>
+        <v>19857</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E5" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>1004.6999999999999</v>
+        <v>981.74999999999989</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44200</v>
+        <v>44247</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>37953</v>
+        <v>38483</v>
       </c>
       <c r="D6" s="2">
         <f>SUM(C6,-C8)</f>
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>2731.8</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
       <c r="H6" s="11">
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>19078</v>
+        <v>19472</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D15" si="5">SUM(C7,-C9)</f>
-        <v>320</v>
+        <f t="shared" ref="D7" si="5">SUM(C7,-C9)</f>
+        <v>394</v>
       </c>
       <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="4"/>
-        <v>816</v>
+        <v>1004.6999999999999</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>37373</v>
+        <v>37953</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(C8,-C10)</f>
-        <v>266</v>
+        <v>580</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F15" si="6">D8*E8</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>2731.8</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1612.4099999999999</v>
+        <v>3547.8</v>
       </c>
       <c r="H8" s="11">
-        <v>1612.41</v>
+        <v>3547.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>18758</v>
+        <v>19078</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="5"/>
-        <v>141</v>
+        <f t="shared" ref="D9:D17" si="7">SUM(C9,-C11)</f>
+        <v>320</v>
       </c>
       <c r="E9" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="6"/>
-        <v>359.54999999999995</v>
+        <v>816</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44166</v>
+      <c r="A10" s="17">
+        <v>44179</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>37107</v>
+        <v>37373</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="5"/>
-        <v>313</v>
+        <f>SUM(C10,-C12)</f>
+        <v>266</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="6"/>
-        <v>1474.23</v>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F17" si="8">D10*E10</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1971.48</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H10" s="11">
-        <v>1971.48</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>18617</v>
+        <v>18758</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="E11" s="2">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="E11" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="6"/>
-        <v>497.24999999999994</v>
+      <c r="F11" s="15">
+        <f t="shared" si="8"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
-        <v>339</v>
+        <f t="shared" si="7"/>
+        <v>313</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
-        <v>1596.69</v>
+        <f t="shared" si="8"/>
+        <v>1474.23</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H12" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>199</v>
+        <f t="shared" si="7"/>
+        <v>195</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="6"/>
-        <v>507.45</v>
+        <f t="shared" si="8"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="13">
-        <v>36455</v>
+        <v>36794</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
-        <v>226</v>
+        <f t="shared" si="7"/>
+        <v>339</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>1064.46</v>
+        <f t="shared" si="8"/>
+        <v>1596.69</v>
       </c>
       <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
-        <v>1390.8600000000001</v>
+        <v>2104.14</v>
       </c>
       <c r="H14" s="11">
-        <v>1390.86</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,37 +978,50 @@
         <v>5</v>
       </c>
       <c r="C15" s="13">
-        <v>18223</v>
+        <v>18422</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="5"/>
-        <v>128</v>
+        <f t="shared" si="7"/>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="6"/>
-        <v>326.39999999999998</v>
+        <f t="shared" si="8"/>
+        <v>507.45</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44123</v>
+        <v>44134</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
+        <v>36455</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>1064.46</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1390.86</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1016,13 +1029,51 @@
         <v>5</v>
       </c>
       <c r="C17" s="13">
+        <v>18223</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="8"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13">
         <v>18095</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -591,10 +591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,31 +639,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44377</v>
+        <v>44396</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>40374</v>
+        <v>40676</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>849</v>
+        <v>302</v>
       </c>
       <c r="E2" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3998.79</v>
+        <v>1497.92</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>6028.59</v>
+        <v>1849</v>
       </c>
       <c r="H2" s="11">
-        <v>5799.09</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,49 +672,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>20653</v>
+        <v>20784</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
-        <v>796</v>
+        <v>131</v>
       </c>
       <c r="E3" s="14">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>2029.8</v>
+        <v>351.08000000000004</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44343</v>
+        <v>44377</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>39525</v>
+        <v>40374</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>4907.82</v>
+        <v>3998.79</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>5889.57</v>
+        <v>6028.59</v>
       </c>
       <c r="H4" s="11">
-        <v>5889.57</v>
+        <v>5799.09</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,49 +723,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>19857</v>
+        <v>20653</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
-        <v>385</v>
+        <v>796</v>
       </c>
       <c r="E5" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>981.74999999999989</v>
+        <v>2029.8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44247</v>
+        <v>44343</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>38483</v>
+        <v>39525</v>
       </c>
       <c r="D6" s="2">
         <f>SUM(C6,-C8)</f>
-        <v>530</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>2496.3000000000002</v>
+        <v>4907.82</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
       <c r="H6" s="11">
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,49 +774,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>19472</v>
+        <v>19857</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">SUM(C7,-C9)</f>
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="4"/>
-        <v>1004.6999999999999</v>
+        <v>981.74999999999989</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44200</v>
+        <v>44247</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>37953</v>
+        <v>38483</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(C8,-C10)</f>
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>2731.8</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
       <c r="H8" s="11">
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,49 +825,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>19078</v>
+        <v>19472</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D17" si="7">SUM(C9,-C11)</f>
-        <v>320</v>
+        <f t="shared" ref="D9" si="7">SUM(C9,-C11)</f>
+        <v>394</v>
       </c>
       <c r="E9" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="6"/>
-        <v>816</v>
+        <v>1004.6999999999999</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>37373</v>
+        <v>37953</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(C10,-C12)</f>
-        <v>266</v>
+        <v>580</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F17" si="8">D10*E10</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>2731.8</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1612.4099999999999</v>
+        <v>3547.8</v>
       </c>
       <c r="H10" s="11">
-        <v>1612.41</v>
+        <v>3547.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,49 +876,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>18758</v>
+        <v>19078</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="7"/>
-        <v>141</v>
+        <f t="shared" ref="D11:D19" si="9">SUM(C11,-C13)</f>
+        <v>320</v>
       </c>
       <c r="E11" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="8"/>
-        <v>359.54999999999995</v>
+        <v>816</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44166</v>
+      <c r="A12" s="17">
+        <v>44179</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>37107</v>
+        <v>37373</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="7"/>
-        <v>313</v>
+        <f>SUM(C12,-C14)</f>
+        <v>266</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="8"/>
-        <v>1474.23</v>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F19" si="10">D12*E12</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>1971.48</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H12" s="11">
-        <v>1971.48</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,49 +927,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="13">
-        <v>18617</v>
+        <v>18758</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="E13" s="2">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+      <c r="E13" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="8"/>
-        <v>497.24999999999994</v>
+      <c r="F13" s="15">
+        <f t="shared" si="10"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>339</v>
+        <f t="shared" si="9"/>
+        <v>313</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>1596.69</v>
+        <f t="shared" si="10"/>
+        <v>1474.23</v>
       </c>
       <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H14" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +978,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>199</v>
+        <f t="shared" si="9"/>
+        <v>195</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="8"/>
-        <v>507.45</v>
+        <f t="shared" si="10"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="13">
-        <v>36455</v>
+        <v>36794</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="7"/>
-        <v>226</v>
+        <f t="shared" si="9"/>
+        <v>339</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>1064.46</v>
+        <f t="shared" si="10"/>
+        <v>1596.69</v>
       </c>
       <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
-        <v>1390.8600000000001</v>
+        <v>2104.14</v>
       </c>
       <c r="H16" s="11">
-        <v>1390.86</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,37 +1029,50 @@
         <v>5</v>
       </c>
       <c r="C17" s="13">
-        <v>18223</v>
+        <v>18422</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>128</v>
+        <f t="shared" si="9"/>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="8"/>
-        <v>326.39999999999998</v>
+        <f t="shared" si="10"/>
+        <v>507.45</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44123</v>
+        <v>44134</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
+        <v>36455</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="9"/>
+        <v>226</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="10"/>
+        <v>1064.46</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1390.86</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1067,13 +1080,51 @@
         <v>5</v>
       </c>
       <c r="C19" s="13">
+        <v>18223</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="10"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13">
         <v>18095</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -61,7 +61,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -89,6 +89,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -110,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -172,11 +179,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +256,17 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -591,10 +635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,31 +683,31 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>44396</v>
+        <v>44497</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13">
-        <v>40676</v>
+        <v>41784</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>302</v>
+        <v>1108</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1497.92</v>
+        <v>5495.68</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>1849</v>
+        <v>6999.16</v>
       </c>
       <c r="H2" s="11">
-        <v>1849</v>
+        <v>6999.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,49 +716,49 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>20784</v>
+        <v>21345</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
-        <v>131</v>
+        <v>561</v>
       </c>
       <c r="E3" s="14">
         <v>2.68</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>351.08000000000004</v>
+        <v>1503.48</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44377</v>
+        <v>44396</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
-        <v>40374</v>
+        <v>40676</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>849</v>
+        <v>302</v>
       </c>
       <c r="E4" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>3998.79</v>
+        <v>1497.92</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>6028.59</v>
+        <v>1849</v>
       </c>
       <c r="H4" s="11">
-        <v>5799.09</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,49 +767,49 @@
         <v>5</v>
       </c>
       <c r="C5" s="13">
-        <v>20653</v>
+        <v>20784</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
-        <v>796</v>
+        <v>131</v>
       </c>
       <c r="E5" s="14">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="2"/>
-        <v>2029.8</v>
+        <v>351.08000000000004</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44343</v>
+        <v>44377</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>39525</v>
+        <v>40374</v>
       </c>
       <c r="D6" s="2">
         <f>SUM(C6,-C8)</f>
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>4907.82</v>
-      </c>
-      <c r="G6" s="11">
+        <v>3998.79</v>
+      </c>
+      <c r="G6" s="22">
         <f>SUM(F6,F7)</f>
-        <v>5889.57</v>
-      </c>
-      <c r="H6" s="11">
-        <v>5889.57</v>
+        <v>6028.59</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5799.09</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,49 +818,49 @@
         <v>5</v>
       </c>
       <c r="C7" s="13">
-        <v>19857</v>
+        <v>20653</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">SUM(C7,-C9)</f>
-        <v>385</v>
+        <v>796</v>
       </c>
       <c r="E7" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="4"/>
-        <v>981.74999999999989</v>
+        <v>2029.8</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44247</v>
+        <v>44343</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="13">
-        <v>38483</v>
+        <v>39525</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(C8,-C10)</f>
-        <v>530</v>
+        <v>1042</v>
       </c>
       <c r="E8" s="5">
         <v>4.71</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>2496.3000000000002</v>
+        <v>4907.82</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
       <c r="H8" s="11">
-        <v>3501</v>
+        <v>5889.57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,49 +869,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>19472</v>
+        <v>19857</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">SUM(C9,-C11)</f>
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E9" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="6"/>
-        <v>1004.6999999999999</v>
+        <v>981.74999999999989</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>44200</v>
+        <v>44247</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>37953</v>
+        <v>38483</v>
       </c>
       <c r="D10" s="2">
         <f>SUM(C10,-C12)</f>
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>2731.8</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
       <c r="H10" s="11">
-        <v>3547.8</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,49 +920,49 @@
         <v>5</v>
       </c>
       <c r="C11" s="13">
-        <v>19078</v>
+        <v>19472</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D19" si="9">SUM(C11,-C13)</f>
-        <v>320</v>
+        <f t="shared" ref="D11" si="9">SUM(C11,-C13)</f>
+        <v>394</v>
       </c>
       <c r="E11" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="8"/>
-        <v>816</v>
+        <v>1004.6999999999999</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>44179</v>
+        <v>44200</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>37373</v>
+        <v>37953</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(C12,-C14)</f>
-        <v>266</v>
+        <v>580</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F19" si="10">D12*E12</f>
-        <v>1252.8599999999999</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>2731.8</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>1612.4099999999999</v>
+        <v>3547.8</v>
       </c>
       <c r="H12" s="11">
-        <v>1612.41</v>
+        <v>3547.8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,49 +971,49 @@
         <v>5</v>
       </c>
       <c r="C13" s="13">
-        <v>18758</v>
+        <v>19078</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="9"/>
-        <v>141</v>
+        <f t="shared" ref="D13:D21" si="11">SUM(C13,-C15)</f>
+        <v>320</v>
       </c>
       <c r="E13" s="14">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="10"/>
-        <v>359.54999999999995</v>
+        <v>816</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44166</v>
+      <c r="A14" s="17">
+        <v>44179</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="13">
-        <v>37107</v>
+        <v>37373</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="9"/>
-        <v>313</v>
+        <f>SUM(C14,-C16)</f>
+        <v>266</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="10"/>
-        <v>1474.23</v>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F21" si="12">D14*E14</f>
+        <v>1252.8599999999999</v>
       </c>
       <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
-        <v>1971.48</v>
+        <v>1612.4099999999999</v>
       </c>
       <c r="H14" s="11">
-        <v>1971.48</v>
+        <v>1612.41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,49 +1022,49 @@
         <v>5</v>
       </c>
       <c r="C15" s="13">
-        <v>18617</v>
+        <v>18758</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="9"/>
-        <v>195</v>
-      </c>
-      <c r="E15" s="2">
+        <f t="shared" si="11"/>
+        <v>141</v>
+      </c>
+      <c r="E15" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="10"/>
-        <v>497.24999999999994</v>
+      <c r="F15" s="15">
+        <f t="shared" si="12"/>
+        <v>359.54999999999995</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44151</v>
+        <v>44166</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="13">
-        <v>36794</v>
+        <v>37107</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="9"/>
-        <v>339</v>
+        <f t="shared" si="11"/>
+        <v>313</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
-        <v>1596.69</v>
+        <f t="shared" si="12"/>
+        <v>1474.23</v>
       </c>
       <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
       <c r="H16" s="11">
-        <v>2104.14</v>
+        <v>1971.48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,49 +1073,49 @@
         <v>5</v>
       </c>
       <c r="C17" s="13">
-        <v>18422</v>
+        <v>18617</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>199</v>
+        <f t="shared" si="11"/>
+        <v>195</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="10"/>
-        <v>507.45</v>
+        <f t="shared" si="12"/>
+        <v>497.24999999999994</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44134</v>
+        <v>44151</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="13">
-        <v>36455</v>
+        <v>36794</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="9"/>
-        <v>226</v>
+        <f t="shared" si="11"/>
+        <v>339</v>
       </c>
       <c r="E18" s="5">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="10"/>
-        <v>1064.46</v>
+        <f t="shared" si="12"/>
+        <v>1596.69</v>
       </c>
       <c r="G18" s="11">
         <f>SUM(F18,F19)</f>
-        <v>1390.8600000000001</v>
+        <v>2104.14</v>
       </c>
       <c r="H18" s="11">
-        <v>1390.86</v>
+        <v>2104.14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,37 +1124,50 @@
         <v>5</v>
       </c>
       <c r="C19" s="13">
-        <v>18223</v>
+        <v>18422</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="9"/>
-        <v>128</v>
+        <f t="shared" si="11"/>
+        <v>199</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="10"/>
-        <v>326.39999999999998</v>
+        <f t="shared" si="12"/>
+        <v>507.45</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>44123</v>
+        <v>44134</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="13">
-        <v>36229</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
+        <v>36455</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="11"/>
+        <v>226</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="12"/>
+        <v>1064.46</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1390.8600000000001</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1390.86</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1118,13 +1175,51 @@
         <v>5</v>
       </c>
       <c r="C21" s="13">
+        <v>18223</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="12"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44123</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>36229</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
         <v>18095</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/63ee.xlsx
+++ b/sputnik/personal/ee/63ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +267,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,10 +636,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1221,22 @@
       <c r="F23" s="15"/>
       <c r="G23" s="12"/>
       <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="23">
+        <f>SUM(G2:G23)</f>
+        <v>34894.01</v>
+      </c>
+      <c r="H24" s="23">
+        <f>SUM(H2:H23)</f>
+        <v>34664.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="23">
+        <f>SUM(H24,-G24)</f>
+        <v>-229.5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
